--- a/data/jod_k_fold_10.xlsx
+++ b/data/jod_k_fold_10.xlsx
@@ -451,37 +451,37 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>default</t>
+          <t>Default</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>mcmc</t>
+          <t>MCMC</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
+          <t>Mini-Splatting</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>eagles</t>
+          <t>EAGLES</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>Mip-Splatting</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>Gaussian-Pro</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>Geo-Gaussian</t>
         </is>
       </c>
     </row>
@@ -503,25 +503,25 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.591555267613727</v>
+        <v>2.004848079210643</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.102424154880659</v>
+        <v>0.3790597009779232</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.762316947246106</v>
+        <v>-0.3166716728455986</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.100591474573138</v>
+        <v>-2.065707803312972</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1266510193384839</v>
+        <v>1.064903885379888</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.317435162047998</v>
+        <v>-0.1897467790980814</v>
       </c>
       <c r="K2" t="n">
-        <v>-1.435444930926894</v>
+        <v>-0.8766928227217847</v>
       </c>
     </row>
     <row r="3">
@@ -542,25 +542,25 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1.639991738946772</v>
+        <v>1.247843137700813</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.03464511934456725</v>
+        <v>-0.2409016566536495</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.6279383980708959</v>
+        <v>0.1677009580414674</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.531917189778134</v>
+        <v>-0.9311834162050499</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6545641280555862</v>
+        <v>0.3784148945797651</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.4420597688749861</v>
+        <v>-0.07913378961251025</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.6579934230666453</v>
+        <v>-0.5427436486318572</v>
       </c>
     </row>
     <row r="4">
@@ -581,25 +581,25 @@
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>1.664130783481895</v>
+        <v>1.411256214380604</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002420824545747097</v>
+        <v>0.01691822568553751</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.9422109684419716</v>
+        <v>0.0112070024645939</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5206107380070399</v>
+        <v>-0.9396922126853383</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6714167528535055</v>
+        <v>0.2231494154261731</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.3133429854115556</v>
+        <v>-0.1336948661998596</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.5618043344636982</v>
+        <v>-0.5891487809434969</v>
       </c>
     </row>
     <row r="5">
@@ -620,25 +620,25 @@
         <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>1.619942721725708</v>
+        <v>1.152020978361674</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3813550155062256</v>
+        <v>0.2497329422519559</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.574469575867618</v>
+        <v>-0.1675499471661905</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.3160953593925879</v>
+        <v>-0.7873706106825041</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6672206265565171</v>
+        <v>0.711141395261767</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.3251942524958217</v>
+        <v>-0.3836343387919221</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.6900462746663443</v>
+        <v>-0.774337095188613</v>
       </c>
     </row>
     <row r="6">
@@ -659,25 +659,25 @@
         <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>1.476595596880782</v>
+        <v>1.124346042868889</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4013466100950204</v>
+        <v>-0.06847361677549187</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5802034375850402</v>
+        <v>-0.03557770693135151</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5708435443062252</v>
+        <v>-0.8949207953503747</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7438162372968423</v>
+        <v>0.3782085787048821</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04041340704460804</v>
+        <v>-0.08250595757116772</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.70843577094216</v>
+        <v>-0.4210772505892786</v>
       </c>
     </row>
     <row r="7">
@@ -698,25 +698,25 @@
         <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>1.713176368340828</v>
+        <v>1.12059374820647</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3494951580449663</v>
+        <v>0.227760751682495</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1497090587986006</v>
+        <v>-0.1537240672410599</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5983876470615725</v>
+        <v>-0.9183732659955443</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7598949827954692</v>
+        <v>0.5079417496913093</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.5085576852709978</v>
+        <v>-0.1146043024770751</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.8669238189623174</v>
+        <v>-0.6695956090869372</v>
       </c>
     </row>
     <row r="8">
@@ -737,25 +737,25 @@
         <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>1.836676597895662</v>
+        <v>1.153715946543808</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2922906175234098</v>
+        <v>0.06791196254631268</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.8899983367735627</v>
+        <v>0.03816104094171355</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.8524055205230562</v>
+        <v>-0.5092782172283307</v>
       </c>
       <c r="I8" t="n">
-        <v>1.199531352756547</v>
+        <v>0.5053135278895057</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.2934120583486209</v>
+        <v>-0.1554303151987541</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.7081055844672244</v>
+        <v>-1.100404611668571</v>
       </c>
     </row>
     <row r="9">
@@ -776,25 +776,25 @@
         <v>7</v>
       </c>
       <c r="E9" t="n">
-        <v>1.687652447610155</v>
+        <v>1.207504380584026</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04049783231724722</v>
+        <v>-0.1620124843533911</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.4032782331640345</v>
+        <v>0.007436863457888967</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.202722263118977</v>
+        <v>-0.9881490249833328</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7453905697628214</v>
+        <v>0.7442878845873686</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.4096571453311519</v>
+        <v>0.1599694453182283</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.4578863240272922</v>
+        <v>-0.9690394567349564</v>
       </c>
     </row>
     <row r="10">
@@ -815,25 +815,25 @@
         <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>1.738093201779401</v>
+        <v>1.021886177019085</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.2278507459299896</v>
+        <v>0.1396611907424984</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.5348465655414085</v>
+        <v>0.1205544807300196</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.6140908955668731</v>
+        <v>-0.7822689173855699</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6919198281602895</v>
+        <v>0.3675375241720589</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01109850898232949</v>
+        <v>-0.2843476686869742</v>
       </c>
       <c r="K10" t="n">
-        <v>-1.064328680231077</v>
+        <v>-0.5830260230224292</v>
       </c>
     </row>
     <row r="11">
@@ -854,25 +854,25 @@
         <v>9</v>
       </c>
       <c r="E11" t="n">
-        <v>1.645545423693923</v>
+        <v>1.239484889926617</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.3123517039231402</v>
+        <v>-0.03942176309418109</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.6517949684469322</v>
+        <v>0.3413023660072425</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.3132290946096116</v>
+        <v>-1.058879693385362</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7497310182184846</v>
+        <v>0.3606654416376287</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.3227437505121306</v>
+        <v>-0.3905468642708954</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.795157258439336</v>
+        <v>-0.4525999396633138</v>
       </c>
     </row>
     <row r="12">
@@ -893,25 +893,25 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.2719165053038108</v>
+        <v>0.182661479139494</v>
       </c>
       <c r="F12" t="n">
-        <v>0.625612855926158</v>
+        <v>0.9056409562113313</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5713796617281125</v>
+        <v>0.4088289945501863</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.93575442315575</v>
+        <v>-0.9857339412485756</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7746704079001048</v>
+        <v>0.6765832400451743</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4329201165300663</v>
+        <v>0.2545049263210736</v>
       </c>
       <c r="K12" t="n">
-        <v>-1.1969143128272</v>
+        <v>-1.442482451419878</v>
       </c>
     </row>
     <row r="13">
@@ -932,25 +932,25 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.06098236194523782</v>
+        <v>0.4344054557669748</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9559406813372325</v>
+        <v>1.590184094711434</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5560428240429719</v>
+        <v>1.118021277988064</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.5329203406508417</v>
+        <v>-1.723990439779812</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7638652508179419</v>
+        <v>0.6169682113332893</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.06046297068521139</v>
+        <v>-0.1908892520106982</v>
       </c>
       <c r="K13" t="n">
-        <v>-1.621482624558782</v>
+        <v>-1.844705564413112</v>
       </c>
     </row>
     <row r="14">
@@ -971,25 +971,25 @@
         <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.2421810727302566</v>
+        <v>0.3126697558291794</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9050518913715846</v>
+        <v>0.9217739874051969</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5138511568019215</v>
+        <v>0.5638711108639981</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.8660205659214643</v>
+        <v>-1.064893853771209</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7077721034713195</v>
+        <v>0.6657515390756706</v>
       </c>
       <c r="J14" t="n">
-        <v>0.04696163836414111</v>
+        <v>0.09827078271138893</v>
       </c>
       <c r="K14" t="n">
-        <v>-1.065439597111329</v>
+        <v>-1.497444517726179</v>
       </c>
     </row>
     <row r="15">
@@ -1010,25 +1010,25 @@
         <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.002520227572633982</v>
+        <v>-0.5610598026526821</v>
       </c>
       <c r="F15" t="n">
-        <v>1.115233885531183</v>
+        <v>1.377035278681805</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3128904648935992</v>
+        <v>0.7083410737658856</v>
       </c>
       <c r="H15" t="n">
-        <v>-1.216354205728444</v>
+        <v>-1.02787141259382</v>
       </c>
       <c r="I15" t="n">
-        <v>1.237360515917362</v>
+        <v>0.8267081376138815</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5428630411587764</v>
+        <v>0.3848763275334983</v>
       </c>
       <c r="K15" t="n">
-        <v>-1.989472318177803</v>
+        <v>-1.70803722741078</v>
       </c>
     </row>
     <row r="16">
@@ -1049,25 +1049,25 @@
         <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.06371264637603252</v>
+        <v>0.1669185463976007</v>
       </c>
       <c r="F16" t="n">
-        <v>1.016657413560554</v>
+        <v>0.9458600473391314</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8383448864594817</v>
+        <v>0.5643138330319604</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.9463893899615669</v>
+        <v>-1.062028705959038</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5156032320155395</v>
+        <v>0.640013627939254</v>
       </c>
       <c r="J16" t="n">
-        <v>0.06183036396154557</v>
+        <v>0.2187597772147873</v>
       </c>
       <c r="K16" t="n">
-        <v>-1.422338463443608</v>
+        <v>-1.473844572945182</v>
       </c>
     </row>
     <row r="17">
@@ -1088,25 +1088,25 @@
         <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5060956026940766</v>
+        <v>-0.138797431793647</v>
       </c>
       <c r="F17" t="n">
-        <v>1.11972840116478</v>
+        <v>1.366864565395202</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4506487315363578</v>
+        <v>0.552386655147509</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.491304766597101</v>
+        <v>-0.8698120853415865</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9060842508475254</v>
+        <v>0.8715463130452099</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1190423925827321</v>
+        <v>0.1669729967661061</v>
       </c>
       <c r="K17" t="n">
-        <v>-1.610290587097146</v>
+        <v>-1.949163133299704</v>
       </c>
     </row>
     <row r="18">
@@ -1127,25 +1127,25 @@
         <v>6</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.06858858677342976</v>
+        <v>0.07560496106297496</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9515709381264391</v>
+        <v>0.8329561845368636</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5007682819548286</v>
+        <v>0.5374461372444846</v>
       </c>
       <c r="H18" t="n">
-        <v>-1.010253112807122</v>
+        <v>-0.9862061606058206</v>
       </c>
       <c r="I18" t="n">
-        <v>1.247510497263925</v>
+        <v>1.026876368750886</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.2340878590151447</v>
+        <v>0.07916602216281679</v>
       </c>
       <c r="K18" t="n">
-        <v>-1.38691656712095</v>
+        <v>-1.565853957917816</v>
       </c>
     </row>
     <row r="19">
@@ -1166,25 +1166,25 @@
         <v>7</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.04963745118774242</v>
+        <v>0.2102109274298671</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9245720241745103</v>
+        <v>1.2335222297087</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7821481357036676</v>
+        <v>0.2782218177349192</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.9534131825505575</v>
+        <v>-1.721162496978291</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7678597531189462</v>
+        <v>1.935123036562737</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.1046471700389283</v>
+        <v>-0.02584013933762485</v>
       </c>
       <c r="K19" t="n">
-        <v>-1.366877980280615</v>
+        <v>-1.910083690528844</v>
       </c>
     </row>
     <row r="20">
@@ -1205,25 +1205,25 @@
         <v>8</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1143944199400708</v>
+        <v>0.1009052454735593</v>
       </c>
       <c r="F20" t="n">
-        <v>1.250029410720541</v>
+        <v>1.116915300508351</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2434369684597759</v>
+        <v>0.6114678381731659</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.9083197697520254</v>
+        <v>-0.8956067066298443</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7780461848201918</v>
+        <v>0.8450904171820168</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.09179200385904851</v>
+        <v>0.1769713893183092</v>
       </c>
       <c r="K20" t="n">
-        <v>-1.385783185508517</v>
+        <v>-1.95575199393213</v>
       </c>
     </row>
     <row r="21">
@@ -1244,25 +1244,25 @@
         <v>9</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.2764870517661806</v>
+        <v>0.0278584484508718</v>
       </c>
       <c r="F21" t="n">
-        <v>1.151697222154592</v>
+        <v>0.9420696420962058</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6990758282135916</v>
+        <v>0.548489471056394</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.9691452087372133</v>
+        <v>-1.231079438744411</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6640069500705016</v>
+        <v>0.8288053924986067</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1923041610155181</v>
+        <v>0.2326346302977462</v>
       </c>
       <c r="K21" t="n">
-        <v>-1.461455254313552</v>
+        <v>-1.348778577468621</v>
       </c>
     </row>
     <row r="22">
@@ -1283,25 +1283,25 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.418094076348635</v>
+        <v>1.361852522964398</v>
       </c>
       <c r="F22" t="n">
-        <v>3.077167342655187</v>
+        <v>3.021917026210892</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.1539767574262045</v>
+        <v>-0.1409028835747484</v>
       </c>
       <c r="H22" t="n">
-        <v>0.09912555054169646</v>
+        <v>-0.1943470564924667</v>
       </c>
       <c r="I22" t="n">
-        <v>-6.775373006748924</v>
+        <v>-7.009294734683317</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2626929556125582</v>
+        <v>0.4190377387658298</v>
       </c>
       <c r="K22" t="n">
-        <v>2.072249453199978</v>
+        <v>2.541728926215104</v>
       </c>
     </row>
     <row r="23">
@@ -1322,25 +1322,25 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>-1.498080108762976</v>
+        <v>-1.611765510012028</v>
       </c>
       <c r="F23" t="n">
-        <v>13.68329139135621</v>
+        <v>14.74988830334465</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.330154620998038</v>
+        <v>-2.809541683508532</v>
       </c>
       <c r="H23" t="n">
-        <v>-2.28531163325762</v>
+        <v>-3.61983586632743</v>
       </c>
       <c r="I23" t="n">
-        <v>-9.884858589312307</v>
+        <v>-10.85975946820822</v>
       </c>
       <c r="J23" t="n">
-        <v>-2.838650561551771</v>
+        <v>-2.734281842458264</v>
       </c>
       <c r="K23" t="n">
-        <v>6.15373972855216</v>
+        <v>6.885279090419467</v>
       </c>
     </row>
     <row r="24">
@@ -1361,25 +1361,25 @@
         <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>1.530382661344299</v>
+        <v>1.601380205052907</v>
       </c>
       <c r="F24" t="n">
-        <v>3.325886704625134</v>
+        <v>3.402587273406605</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.06844401407196272</v>
+        <v>-0.1189368452947952</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.2302286707000984</v>
+        <v>0.5540635951572154</v>
       </c>
       <c r="I24" t="n">
-        <v>-7.375449527595685</v>
+        <v>-7.781414358387041</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3188685653804379</v>
+        <v>-0.265602993622425</v>
       </c>
       <c r="K24" t="n">
-        <v>2.498976179309193</v>
+        <v>2.607892427044779</v>
       </c>
     </row>
     <row r="25">
@@ -1400,25 +1400,25 @@
         <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>1.603535283521146</v>
+        <v>1.694191133687169</v>
       </c>
       <c r="F25" t="n">
-        <v>3.265384615638864</v>
+        <v>3.353363879496253</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.3315338026761575</v>
+        <v>-0.06794959898455308</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.3398549806987898</v>
+        <v>-0.6512978737493372</v>
       </c>
       <c r="I25" t="n">
-        <v>-7.234076046947738</v>
+        <v>-7.53683493613104</v>
       </c>
       <c r="J25" t="n">
-        <v>0.7829278803377786</v>
+        <v>0.8729608163750109</v>
       </c>
       <c r="K25" t="n">
-        <v>2.253610927134347</v>
+        <v>2.335532596789379</v>
       </c>
     </row>
     <row r="26">
@@ -1439,25 +1439,25 @@
         <v>4</v>
       </c>
       <c r="E26" t="n">
-        <v>7.10943717334965</v>
+        <v>1.495821732946093</v>
       </c>
       <c r="F26" t="n">
-        <v>8.521683337182356</v>
+        <v>3.316799978708618</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.464082623546448</v>
+        <v>-0.04695965550704087</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.8571090208186178</v>
+        <v>-0.03340957923659901</v>
       </c>
       <c r="I26" t="n">
-        <v>-13.98471221939548</v>
+        <v>-7.610875876997728</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.857102353409517</v>
+        <v>0.3891089866880391</v>
       </c>
       <c r="K26" t="n">
-        <v>7.531871694410788</v>
+        <v>2.489501921255756</v>
       </c>
     </row>
     <row r="27">
@@ -1478,25 +1478,25 @@
         <v>5</v>
       </c>
       <c r="E27" t="n">
-        <v>1.416597290604846</v>
+        <v>6.012765681921422</v>
       </c>
       <c r="F27" t="n">
-        <v>2.765997388748958</v>
+        <v>7.245147558344845</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.3820635991247127</v>
+        <v>-3.633241404896736</v>
       </c>
       <c r="H27" t="n">
-        <v>0.09786419312854192</v>
+        <v>-2.955278544441139</v>
       </c>
       <c r="I27" t="n">
-        <v>-7.095737684933779</v>
+        <v>-11.02105464017086</v>
       </c>
       <c r="J27" t="n">
-        <v>0.271234016637169</v>
+        <v>-2.277310962538154</v>
       </c>
       <c r="K27" t="n">
-        <v>2.926099543370097</v>
+        <v>6.628954832335491</v>
       </c>
     </row>
     <row r="28">
@@ -1517,25 +1517,25 @@
         <v>6</v>
       </c>
       <c r="E28" t="n">
-        <v>1.342079407510983</v>
+        <v>1.426607239028421</v>
       </c>
       <c r="F28" t="n">
-        <v>3.185199730075575</v>
+        <v>3.068170502192407</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.4210820175309791</v>
+        <v>-0.05905011904193275</v>
       </c>
       <c r="H28" t="n">
-        <v>0.144872940522414</v>
+        <v>-0.1210130554558206</v>
       </c>
       <c r="I28" t="n">
-        <v>-7.084524465901651</v>
+        <v>-7.406168873860931</v>
       </c>
       <c r="J28" t="n">
-        <v>0.4776639573215545</v>
+        <v>0.4914809921087601</v>
       </c>
       <c r="K28" t="n">
-        <v>2.355779036237605</v>
+        <v>2.599959091809261</v>
       </c>
     </row>
     <row r="29">
@@ -1556,25 +1556,25 @@
         <v>7</v>
       </c>
       <c r="E29" t="n">
-        <v>1.43242736213131</v>
+        <v>1.495724276789306</v>
       </c>
       <c r="F29" t="n">
-        <v>3.094457780832613</v>
+        <v>3.14479154703484</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1763907080859486</v>
+        <v>0.1322136442889457</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2541674423598317</v>
+        <v>-0.07987776519715714</v>
       </c>
       <c r="I29" t="n">
-        <v>-7.154180231285872</v>
+        <v>-7.223119258263915</v>
       </c>
       <c r="J29" t="n">
-        <v>0.1794747104699219</v>
+        <v>0.113222313411299</v>
       </c>
       <c r="K29" t="n">
-        <v>2.370044392098407</v>
+        <v>2.41702543125434</v>
       </c>
     </row>
     <row r="30">
@@ -1595,25 +1595,25 @@
         <v>8</v>
       </c>
       <c r="E30" t="n">
-        <v>1.478508452388473</v>
+        <v>1.53839363430594</v>
       </c>
       <c r="F30" t="n">
-        <v>3.254512621635578</v>
+        <v>3.310528049250014</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.4121221418389709</v>
+        <v>-0.07791238864831926</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1472781430173727</v>
+        <v>-0.1519200735073468</v>
       </c>
       <c r="I30" t="n">
-        <v>-7.249295445679341</v>
+        <v>-7.462935709701918</v>
       </c>
       <c r="J30" t="n">
-        <v>0.3333736685719087</v>
+        <v>0.3456553514424245</v>
       </c>
       <c r="K30" t="n">
-        <v>2.447716484827822</v>
+        <v>2.498158272593964</v>
       </c>
     </row>
     <row r="31">
@@ -1634,25 +1634,25 @@
         <v>9</v>
       </c>
       <c r="E31" t="n">
-        <v>1.538266779436836</v>
+        <v>1.520911864436209</v>
       </c>
       <c r="F31" t="n">
-        <v>3.119164162075374</v>
+        <v>3.291545747629639</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.3583483658521641</v>
+        <v>-0.1010400184833378</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1961104553410849</v>
+        <v>-0.1743190035448995</v>
       </c>
       <c r="I31" t="n">
-        <v>-7.576179977747797</v>
+        <v>-7.360183269553741</v>
       </c>
       <c r="J31" t="n">
-        <v>0.4010664328126266</v>
+        <v>0.3435623305262613</v>
       </c>
       <c r="K31" t="n">
-        <v>2.679937434017492</v>
+        <v>2.479496044804852</v>
       </c>
     </row>
     <row r="32">
@@ -1673,25 +1673,25 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-1.825760577262367</v>
+        <v>-3.599223228388526</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.753851445451619</v>
+        <v>-5.292609664868024</v>
       </c>
       <c r="G32" t="n">
-        <v>-9.916120123366783</v>
+        <v>-6.481354187583716</v>
       </c>
       <c r="H32" t="n">
-        <v>6.447805318461412</v>
+        <v>11.98848013781449</v>
       </c>
       <c r="I32" t="n">
-        <v>5.091882396762616</v>
+        <v>4.035817367014033</v>
       </c>
       <c r="J32" t="n">
-        <v>5.769843775270862</v>
+        <v>4.035821834792276</v>
       </c>
       <c r="K32" t="n">
-        <v>-2.813819034367655</v>
+        <v>-4.686986082313024</v>
       </c>
     </row>
     <row r="33">
@@ -1712,25 +1712,25 @@
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>3.022707604927638</v>
+        <v>-2.548479206163286</v>
       </c>
       <c r="F33" t="n">
-        <v>-11.0311422784729</v>
+        <v>-4.241874617190045</v>
       </c>
       <c r="G33" t="n">
-        <v>-18.58276235530669</v>
+        <v>-5.43061576977101</v>
       </c>
       <c r="H33" t="n">
-        <v>10.58561900059734</v>
+        <v>5.924439983122731</v>
       </c>
       <c r="I33" t="n">
-        <v>9.976468160772566</v>
+        <v>4.936385270832625</v>
       </c>
       <c r="J33" t="n">
-        <v>9.976478556201283</v>
+        <v>4.996346329358629</v>
       </c>
       <c r="K33" t="n">
-        <v>-3.947438798136891</v>
+        <v>-3.636248649496779</v>
       </c>
     </row>
     <row r="34">
@@ -1751,25 +1751,25 @@
         <v>2</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.785933526539398</v>
+        <v>-2.396831090086251</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.167932252170012</v>
+        <v>-3.772881096409266</v>
       </c>
       <c r="G34" t="n">
-        <v>-9.95758690934599</v>
+        <v>-4.96017449620466</v>
       </c>
       <c r="H34" t="n">
-        <v>6.349096412802512</v>
+        <v>5.441102374914075</v>
       </c>
       <c r="I34" t="n">
-        <v>4.778816632065641</v>
+        <v>4.192224343929887</v>
       </c>
       <c r="J34" t="n">
-        <v>5.33345260768394</v>
+        <v>4.562749607254572</v>
       </c>
       <c r="K34" t="n">
-        <v>-2.549931956896936</v>
+        <v>-3.066220611413534</v>
       </c>
     </row>
     <row r="35">
@@ -1790,25 +1790,25 @@
         <v>3</v>
       </c>
       <c r="E35" t="n">
-        <v>-2.216847698803939</v>
+        <v>-2.551542043925831</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.936790624984113</v>
+        <v>-4.277250309823704</v>
       </c>
       <c r="G35" t="n">
-        <v>-10.10195085577324</v>
+        <v>-5.098056615177117</v>
       </c>
       <c r="H35" t="n">
-        <v>6.725564857904468</v>
+        <v>6.060987816783557</v>
       </c>
       <c r="I35" t="n">
-        <v>5.611941736149926</v>
+        <v>4.490707037469296</v>
       </c>
       <c r="J35" t="n">
-        <v>5.494867674366919</v>
+        <v>5.045348329414576</v>
       </c>
       <c r="K35" t="n">
-        <v>-2.576818989137635</v>
+        <v>-3.670215855508446</v>
       </c>
     </row>
     <row r="36">
@@ -1829,25 +1829,25 @@
         <v>4</v>
       </c>
       <c r="E36" t="n">
-        <v>-1.317463160116946</v>
+        <v>-2.361922799144375</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.245548291085701</v>
+        <v>-3.89034372258503</v>
       </c>
       <c r="G36" t="n">
-        <v>-9.877016776253578</v>
+        <v>-5.123585692810781</v>
       </c>
       <c r="H36" t="n">
-        <v>5.926469176049867</v>
+        <v>5.596126240266426</v>
       </c>
       <c r="I36" t="n">
-        <v>4.570542776653981</v>
+        <v>4.240205411582665</v>
       </c>
       <c r="J36" t="n">
-        <v>5.248503302645993</v>
+        <v>4.918166225580531</v>
       </c>
       <c r="K36" t="n">
-        <v>-2.305514910985141</v>
+        <v>-3.378665405822245</v>
       </c>
     </row>
     <row r="37">
@@ -1868,25 +1868,25 @@
         <v>5</v>
       </c>
       <c r="E37" t="n">
-        <v>-2.688085284932894</v>
+        <v>1.774326147398521</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.616177732435958</v>
+        <v>-12.40407628196189</v>
       </c>
       <c r="G37" t="n">
-        <v>-12.02687177435276</v>
+        <v>-13.0132165356331</v>
       </c>
       <c r="H37" t="n">
-        <v>12.94625317434474</v>
+        <v>10.33883162772225</v>
       </c>
       <c r="I37" t="n">
-        <v>4.530494525291818</v>
+        <v>9.089945895109354</v>
       </c>
       <c r="J37" t="n">
-        <v>4.530502756806176</v>
+        <v>9.460480022921915</v>
       </c>
       <c r="K37" t="n">
-        <v>-3.676142814229993</v>
+        <v>-5.246377591530302</v>
       </c>
     </row>
     <row r="38">
@@ -1907,25 +1907,25 @@
         <v>6</v>
       </c>
       <c r="E38" t="n">
-        <v>-2.18059910872615</v>
+        <v>-2.396368039198318</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.900542967248195</v>
+        <v>-3.88695303323146</v>
       </c>
       <c r="G38" t="n">
-        <v>-9.78649164086641</v>
+        <v>-4.91796705133719</v>
       </c>
       <c r="H38" t="n">
-        <v>6.664703974997684</v>
+        <v>5.663097805685242</v>
       </c>
       <c r="I38" t="n">
-        <v>5.09442272475658</v>
+        <v>4.092818954853794</v>
       </c>
       <c r="J38" t="n">
-        <v>5.649059206354615</v>
+        <v>4.647455149176772</v>
       </c>
       <c r="K38" t="n">
-        <v>-2.540576715354918</v>
+        <v>-3.202142969640038</v>
       </c>
     </row>
     <row r="39">
@@ -1946,25 +1946,25 @@
         <v>7</v>
       </c>
       <c r="E39" t="n">
-        <v>-3.732147248656052</v>
+        <v>-4.2405653987847</v>
       </c>
       <c r="F39" t="n">
-        <v>-4.660247377003895</v>
+        <v>-5.562522753820796</v>
       </c>
       <c r="G39" t="n">
-        <v>-11.93970669993105</v>
+        <v>-15.2186425208822</v>
       </c>
       <c r="H39" t="n">
-        <v>11.17542687306038</v>
+        <v>13.62851103916126</v>
       </c>
       <c r="I39" t="n">
-        <v>3.310569345583</v>
+        <v>4.047027544359612</v>
       </c>
       <c r="J39" t="n">
-        <v>10.5662897919185</v>
+        <v>13.01937838339207</v>
       </c>
       <c r="K39" t="n">
-        <v>-4.720214597455006</v>
+        <v>-5.673229507996806</v>
       </c>
     </row>
     <row r="40">
@@ -1985,25 +1985,25 @@
         <v>8</v>
       </c>
       <c r="E40" t="n">
-        <v>-1.729545133537773</v>
+        <v>-2.61729155862045</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.657638803657224</v>
+        <v>-3.964350219696907</v>
       </c>
       <c r="G40" t="n">
-        <v>-10.60146644819559</v>
+        <v>-5.311411194338056</v>
       </c>
       <c r="H40" t="n">
-        <v>6.76405535514635</v>
+        <v>6.071871726040992</v>
       </c>
       <c r="I40" t="n">
-        <v>5.19377356869104</v>
+        <v>4.50159817061183</v>
       </c>
       <c r="J40" t="n">
-        <v>5.748411063778611</v>
+        <v>5.05622950174082</v>
       </c>
       <c r="K40" t="n">
-        <v>-2.717609324355877</v>
+        <v>-3.73668048897905</v>
       </c>
     </row>
     <row r="41">
@@ -2024,25 +2024,25 @@
         <v>9</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.04791615086581473</v>
+        <v>-2.664239048284447</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.04791692457108008</v>
+        <v>-4.433762385303595</v>
       </c>
       <c r="G41" t="n">
-        <v>-15.03730343264383</v>
+        <v>-5.357470181350864</v>
       </c>
       <c r="H41" t="n">
-        <v>8.48317080922093</v>
+        <v>6.248364128496458</v>
       </c>
       <c r="I41" t="n">
-        <v>6.912891561293393</v>
+        <v>4.678082818588142</v>
       </c>
       <c r="J41" t="n">
-        <v>7.467529434466992</v>
+        <v>5.232721429554156</v>
       </c>
       <c r="K41" t="n">
-        <v>-7.730503919925723</v>
+        <v>-3.703709106412013</v>
       </c>
     </row>
     <row r="42">
@@ -2063,25 +2063,25 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>-4.669593424553082</v>
+        <v>-4.664956360664265</v>
       </c>
       <c r="F42" t="n">
-        <v>9.152247795129629</v>
+        <v>9.216439632189955</v>
       </c>
       <c r="G42" t="n">
-        <v>9.749479054024162</v>
+        <v>10.16977993595828</v>
       </c>
       <c r="H42" t="n">
-        <v>-5.804401825637151</v>
+        <v>-6.126830735840785</v>
       </c>
       <c r="I42" t="n">
-        <v>2.437964910560384</v>
+        <v>2.497927812419679</v>
       </c>
       <c r="J42" t="n">
-        <v>-5.006792725106124</v>
+        <v>-5.315473181862233</v>
       </c>
       <c r="K42" t="n">
-        <v>-5.858929792240705</v>
+        <v>-5.776902167300958</v>
       </c>
     </row>
     <row r="43">
@@ -2102,25 +2102,25 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>-4.484892889593077</v>
+        <v>-4.797253325329362</v>
       </c>
       <c r="F43" t="n">
-        <v>9.545971403271972</v>
+        <v>9.733173025373226</v>
       </c>
       <c r="G43" t="n">
-        <v>10.15778915180046</v>
+        <v>10.84750256452204</v>
       </c>
       <c r="H43" t="n">
-        <v>-5.675581723212265</v>
+        <v>-6.095333982378406</v>
       </c>
       <c r="I43" t="n">
-        <v>2.654379331576617</v>
+        <v>2.806503028487519</v>
       </c>
       <c r="J43" t="n">
-        <v>-5.519756642051794</v>
+        <v>-5.941647474678442</v>
       </c>
       <c r="K43" t="n">
-        <v>-6.677894866913708</v>
+        <v>-6.552988738428523</v>
       </c>
     </row>
     <row r="44">
@@ -2141,25 +2141,25 @@
         <v>2</v>
       </c>
       <c r="E44" t="n">
-        <v>-4.644807810411867</v>
+        <v>-4.287656454146489</v>
       </c>
       <c r="F44" t="n">
-        <v>9.691009847753575</v>
+        <v>9.57519698194298</v>
       </c>
       <c r="G44" t="n">
-        <v>10.47853464296199</v>
+        <v>9.187429455353591</v>
       </c>
       <c r="H44" t="n">
-        <v>-6.243591920837785</v>
+        <v>-6.088377893320398</v>
       </c>
       <c r="I44" t="n">
-        <v>2.820382429331415</v>
+        <v>2.560516491940095</v>
       </c>
       <c r="J44" t="n">
-        <v>-5.158004046638191</v>
+        <v>-4.76274451568652</v>
       </c>
       <c r="K44" t="n">
-        <v>-6.943551260421678</v>
+        <v>-6.184367663270359</v>
       </c>
     </row>
     <row r="45">
@@ -2180,25 +2180,25 @@
         <v>3</v>
       </c>
       <c r="E45" t="n">
-        <v>-4.639512523984038</v>
+        <v>-4.594081388273867</v>
       </c>
       <c r="F45" t="n">
-        <v>9.23666329138139</v>
+        <v>9.164325104449457</v>
       </c>
       <c r="G45" t="n">
-        <v>10.73301293621212</v>
+        <v>10.58447628207876</v>
       </c>
       <c r="H45" t="n">
-        <v>-6.136290692134298</v>
+        <v>-6.276704387556822</v>
       </c>
       <c r="I45" t="n">
-        <v>2.71246842138429</v>
+        <v>2.642724401711716</v>
       </c>
       <c r="J45" t="n">
-        <v>-5.553468591223114</v>
+        <v>-5.448594848193149</v>
       </c>
       <c r="K45" t="n">
-        <v>-6.352922810436886</v>
+        <v>-6.072180716170875</v>
       </c>
     </row>
     <row r="46">
@@ -2219,25 +2219,25 @@
         <v>4</v>
       </c>
       <c r="E46" t="n">
-        <v>-4.58121514151179</v>
+        <v>-4.683498740143503</v>
       </c>
       <c r="F46" t="n">
-        <v>9.231712149061796</v>
+        <v>9.360173501751595</v>
       </c>
       <c r="G46" t="n">
-        <v>10.17321888967477</v>
+        <v>10.12310042114855</v>
       </c>
       <c r="H46" t="n">
-        <v>-5.845040460112117</v>
+        <v>-5.970190990657674</v>
       </c>
       <c r="I46" t="n">
-        <v>2.524782821535143</v>
+        <v>2.517791501601829</v>
       </c>
       <c r="J46" t="n">
-        <v>-5.507207758156457</v>
+        <v>-5.206805648468164</v>
       </c>
       <c r="K46" t="n">
-        <v>-5.996232376746822</v>
+        <v>-6.140588480029106</v>
       </c>
     </row>
     <row r="47">
@@ -2258,25 +2258,25 @@
         <v>5</v>
       </c>
       <c r="E47" t="n">
-        <v>-2.019951242607481</v>
+        <v>-2.016257217537797</v>
       </c>
       <c r="F47" t="n">
-        <v>12.9320057020391</v>
+        <v>13.05940039504876</v>
       </c>
       <c r="G47" t="n">
-        <v>15.78293160924713</v>
+        <v>16.00648206967934</v>
       </c>
       <c r="H47" t="n">
-        <v>-11.57761537424044</v>
+        <v>-12.04879119938765</v>
       </c>
       <c r="I47" t="n">
-        <v>6.418412599473294</v>
+        <v>6.510781902378373</v>
       </c>
       <c r="J47" t="n">
-        <v>-10.32873204158008</v>
+        <v>-10.47850992356636</v>
       </c>
       <c r="K47" t="n">
-        <v>-11.20708372127385</v>
+        <v>-11.03314740722923</v>
       </c>
     </row>
     <row r="48">
@@ -2297,25 +2297,25 @@
         <v>6</v>
       </c>
       <c r="E48" t="n">
-        <v>-4.960466987975736</v>
+        <v>-4.669587507694005</v>
       </c>
       <c r="F48" t="n">
-        <v>9.482245089089107</v>
+        <v>8.825681086879715</v>
       </c>
       <c r="G48" t="n">
-        <v>11.619109013562</v>
+        <v>9.911116243338808</v>
       </c>
       <c r="H48" t="n">
-        <v>-6.457245522700614</v>
+        <v>-6.078290050670364</v>
       </c>
       <c r="I48" t="n">
-        <v>2.864629795211418</v>
+        <v>2.187051496223142</v>
       </c>
       <c r="J48" t="n">
-        <v>-5.874424366893376</v>
+        <v>-5.095690349740493</v>
       </c>
       <c r="K48" t="n">
-        <v>-6.673877740253929</v>
+        <v>-5.08031582377898</v>
       </c>
     </row>
     <row r="49">
@@ -2336,25 +2336,25 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>-4.675559865224439</v>
+        <v>-4.354937645534696</v>
       </c>
       <c r="F49" t="n">
-        <v>9.555045778873398</v>
+        <v>9.544079672619114</v>
       </c>
       <c r="G49" t="n">
-        <v>10.53494788087205</v>
+        <v>9.468773502879024</v>
       </c>
       <c r="H49" t="n">
-        <v>-5.938814011945615</v>
+        <v>-6.03756127938871</v>
       </c>
       <c r="I49" t="n">
-        <v>2.787155271463356</v>
+        <v>2.422127159921283</v>
       </c>
       <c r="J49" t="n">
-        <v>-6.012183946324773</v>
+        <v>-5.209450725910498</v>
       </c>
       <c r="K49" t="n">
-        <v>-6.250613731928545</v>
+        <v>-5.833036948119229</v>
       </c>
     </row>
     <row r="50">
@@ -2375,25 +2375,25 @@
         <v>8</v>
       </c>
       <c r="E50" t="n">
-        <v>-4.657330443810068</v>
+        <v>-5.021293926866695</v>
       </c>
       <c r="F50" t="n">
-        <v>10.15693823342369</v>
+        <v>11.12349822697451</v>
       </c>
       <c r="G50" t="n">
-        <v>9.849336036511929</v>
+        <v>10.42579621476585</v>
       </c>
       <c r="H50" t="n">
-        <v>-6.047023775761944</v>
+        <v>-6.703914670277589</v>
       </c>
       <c r="I50" t="n">
-        <v>2.325559250149195</v>
+        <v>2.551085196531851</v>
       </c>
       <c r="J50" t="n">
-        <v>-5.451343689237226</v>
+        <v>-5.875804971227428</v>
       </c>
       <c r="K50" t="n">
-        <v>-6.17617035707923</v>
+        <v>-6.499391435932596</v>
       </c>
     </row>
     <row r="51">
@@ -2414,25 +2414,25 @@
         <v>9</v>
       </c>
       <c r="E51" t="n">
-        <v>-4.521541740529786</v>
+        <v>-4.711369552018588</v>
       </c>
       <c r="F51" t="n">
-        <v>9.290474657549433</v>
+        <v>9.286544431304062</v>
       </c>
       <c r="G51" t="n">
-        <v>9.565523448726378</v>
+        <v>10.67469068302663</v>
       </c>
       <c r="H51" t="n">
-        <v>-6.076320970554638</v>
+        <v>-6.225937644861648</v>
       </c>
       <c r="I51" t="n">
-        <v>2.339712449310956</v>
+        <v>2.523352708405223</v>
       </c>
       <c r="J51" t="n">
-        <v>-4.946750468995103</v>
+        <v>-5.468927814360878</v>
       </c>
       <c r="K51" t="n">
-        <v>-5.651126375164818</v>
+        <v>-6.078377719005092</v>
       </c>
     </row>
     <row r="52">
@@ -2453,25 +2453,25 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>-1.894822019328529</v>
+        <v>-1.40528677964629</v>
       </c>
       <c r="F52" t="n">
-        <v>6.072941305970769</v>
+        <v>6.599349111594564</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.280181225728005</v>
+        <v>-2.413702195278694</v>
       </c>
       <c r="H52" t="n">
-        <v>-1.660923838285307</v>
+        <v>-1.858348274563177</v>
       </c>
       <c r="I52" t="n">
-        <v>5.463801153285022</v>
+        <v>5.64548337459523</v>
       </c>
       <c r="J52" t="n">
-        <v>-2.695646475969664</v>
+        <v>-2.816970065084708</v>
       </c>
       <c r="K52" t="n">
-        <v>-3.005194587919794</v>
+        <v>-3.750542177979792</v>
       </c>
     </row>
     <row r="53">
@@ -2492,25 +2492,25 @@
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>-1.962842251824536</v>
+        <v>-1.953105487684399</v>
       </c>
       <c r="F53" t="n">
-        <v>5.903186987495147</v>
+        <v>5.878846369128437</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.244016420086992</v>
+        <v>-2.234279541610917</v>
       </c>
       <c r="H53" t="n">
-        <v>-1.467772218296183</v>
+        <v>-1.458034425460303</v>
       </c>
       <c r="I53" t="n">
-        <v>5.294045622779222</v>
+        <v>5.269711178706141</v>
       </c>
       <c r="J53" t="n">
-        <v>-3.070873042429181</v>
+        <v>-3.061136162053164</v>
       </c>
       <c r="K53" t="n">
-        <v>-2.451749338666651</v>
+        <v>-2.442011840567133</v>
       </c>
     </row>
     <row r="54">
@@ -2531,25 +2531,25 @@
         <v>2</v>
       </c>
       <c r="E54" t="n">
-        <v>-2.272973362420216</v>
+        <v>-3.468805717191381</v>
       </c>
       <c r="F54" t="n">
-        <v>12.30715340955139</v>
+        <v>12.19911180555016</v>
       </c>
       <c r="G54" t="n">
-        <v>-3.723589920362155</v>
+        <v>-3.634873366508808</v>
       </c>
       <c r="H54" t="n">
-        <v>-2.636402731394943</v>
+        <v>-2.281551121852645</v>
       </c>
       <c r="I54" t="n">
-        <v>5.022144020937029</v>
+        <v>5.273439065770772</v>
       </c>
       <c r="J54" t="n">
-        <v>-5.056639446195375</v>
+        <v>-4.417288794439271</v>
       </c>
       <c r="K54" t="n">
-        <v>-3.639732947910959</v>
+        <v>-3.670088852760729</v>
       </c>
     </row>
     <row r="55">
@@ -2570,25 +2570,25 @@
         <v>3</v>
       </c>
       <c r="E55" t="n">
-        <v>-1.774808072291868</v>
+        <v>-1.748070480519134</v>
       </c>
       <c r="F55" t="n">
-        <v>5.865922205318579</v>
+        <v>5.814282238701669</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.226667465751794</v>
+        <v>-2.102575629295468</v>
       </c>
       <c r="H55" t="n">
-        <v>-1.672145765181059</v>
+        <v>-1.615524988762704</v>
       </c>
       <c r="I55" t="n">
-        <v>5.256780884677771</v>
+        <v>5.205141724483316</v>
       </c>
       <c r="J55" t="n">
-        <v>-2.893479975834657</v>
+        <v>-3.008413331301922</v>
       </c>
       <c r="K55" t="n">
-        <v>-2.555629347066954</v>
+        <v>-2.54487656789256</v>
       </c>
     </row>
     <row r="56">
@@ -2609,25 +2609,25 @@
         <v>4</v>
       </c>
       <c r="E56" t="n">
-        <v>-2.125105947435034</v>
+        <v>-2.110680401526339</v>
       </c>
       <c r="F56" t="n">
-        <v>6.389005331958463</v>
+        <v>6.368991338891003</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.225039099292291</v>
+        <v>-2.181295423937945</v>
       </c>
       <c r="H56" t="n">
-        <v>-1.706569271670421</v>
+        <v>-1.952516013172902</v>
       </c>
       <c r="I56" t="n">
-        <v>5.435131954143282</v>
+        <v>5.415118685596133</v>
       </c>
       <c r="J56" t="n">
-        <v>-3.156243047369732</v>
+        <v>-2.958562080650944</v>
       </c>
       <c r="K56" t="n">
-        <v>-2.611138345651676</v>
+        <v>-2.581073130638345</v>
       </c>
     </row>
     <row r="57">
@@ -2648,25 +2648,25 @@
         <v>5</v>
       </c>
       <c r="E57" t="n">
-        <v>-1.833769869044718</v>
+        <v>-1.874087065660998</v>
       </c>
       <c r="F57" t="n">
-        <v>6.21174747648304</v>
+        <v>6.270501708428314</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.175459167968943</v>
+        <v>-2.322521402689049</v>
       </c>
       <c r="H57" t="n">
-        <v>-1.920990320808595</v>
+        <v>-1.732766842708196</v>
       </c>
       <c r="I57" t="n">
-        <v>5.257876195732927</v>
+        <v>5.316626650833189</v>
       </c>
       <c r="J57" t="n">
-        <v>-2.869161439229149</v>
+        <v>-2.956901627774613</v>
       </c>
       <c r="K57" t="n">
-        <v>-2.670271382996525</v>
+        <v>-2.700872870483861</v>
       </c>
     </row>
     <row r="58">
@@ -2687,25 +2687,25 @@
         <v>6</v>
       </c>
       <c r="E58" t="n">
-        <v>-2.044349402107225</v>
+        <v>-0.7341524616412667</v>
       </c>
       <c r="F58" t="n">
-        <v>6.743734223853753</v>
+        <v>8.219961915547696</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.187455788484992</v>
+        <v>-1.654613026345393</v>
       </c>
       <c r="H58" t="n">
-        <v>-1.601283656486954</v>
+        <v>-1.092188213627621</v>
       </c>
       <c r="I58" t="n">
-        <v>5.789861620377219</v>
+        <v>7.26608894739443</v>
       </c>
       <c r="J58" t="n">
-        <v>-3.826554498307571</v>
+        <v>-9.517065499133945</v>
       </c>
       <c r="K58" t="n">
-        <v>-2.873972491889811</v>
+        <v>-2.488056513615479</v>
       </c>
     </row>
     <row r="59">
@@ -2726,25 +2726,25 @@
         <v>7</v>
       </c>
       <c r="E59" t="n">
-        <v>-2.017112828588841</v>
+        <v>-2.176984628820185</v>
       </c>
       <c r="F59" t="n">
-        <v>6.134606640436004</v>
+        <v>6.498362093851732</v>
       </c>
       <c r="G59" t="n">
-        <v>-2.229546452897809</v>
+        <v>-2.360087953954916</v>
       </c>
       <c r="H59" t="n">
-        <v>-1.655353861211223</v>
+        <v>-1.662556634434356</v>
       </c>
       <c r="I59" t="n">
-        <v>5.180735206276792</v>
+        <v>5.544489566119109</v>
       </c>
       <c r="J59" t="n">
-        <v>-2.916772358204268</v>
+        <v>-3.104711247243303</v>
       </c>
       <c r="K59" t="n">
-        <v>-2.496569360825128</v>
+        <v>-2.738511421435353</v>
       </c>
     </row>
     <row r="60">
@@ -2765,25 +2765,25 @@
         <v>8</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.532757281141554</v>
+        <v>-1.926547270878602</v>
       </c>
       <c r="F60" t="n">
-        <v>6.57632928417592</v>
+        <v>6.329839866072517</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.794176031994023</v>
+        <v>-2.663844115309019</v>
       </c>
       <c r="H60" t="n">
-        <v>-1.186453235313496</v>
+        <v>-1.085358237713803</v>
       </c>
       <c r="I60" t="n">
-        <v>5.622454812540107</v>
+        <v>5.375966898575411</v>
       </c>
       <c r="J60" t="n">
-        <v>-3.504152714857495</v>
+        <v>-3.335460855728989</v>
       </c>
       <c r="K60" t="n">
-        <v>-3.181261041729848</v>
+        <v>-2.694640856001737</v>
       </c>
     </row>
     <row r="61">
@@ -2804,25 +2804,25 @@
         <v>9</v>
       </c>
       <c r="E61" t="n">
-        <v>-2.461037536926465</v>
+        <v>-1.769433193206199</v>
       </c>
       <c r="F61" t="n">
-        <v>6.69381080730728</v>
+        <v>5.852503699090533</v>
       </c>
       <c r="G61" t="n">
-        <v>-2.627102459083654</v>
+        <v>-2.389713745152255</v>
       </c>
       <c r="H61" t="n">
-        <v>-1.273786059669254</v>
+        <v>-1.475463215683007</v>
       </c>
       <c r="I61" t="n">
-        <v>5.739938398088016</v>
+        <v>5.243364463878542</v>
       </c>
       <c r="J61" t="n">
-        <v>-3.409517621555538</v>
+        <v>-3.072031088384265</v>
       </c>
       <c r="K61" t="n">
-        <v>-2.662318010071335</v>
+        <v>-2.389290577110116</v>
       </c>
     </row>
     <row r="62">
@@ -3233,25 +3233,25 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1349550916568424</v>
+        <v>-4.493252468750822</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9898522216080138</v>
+        <v>2.756084914685038</v>
       </c>
       <c r="G72" t="n">
-        <v>2.382661004930928</v>
+        <v>4.32311830074247</v>
       </c>
       <c r="H72" t="n">
-        <v>1.212968330586357</v>
+        <v>3.159015452372007</v>
       </c>
       <c r="I72" t="n">
-        <v>1.858573241367942</v>
+        <v>3.636796227285943</v>
       </c>
       <c r="J72" t="n">
-        <v>0.7368751964246809</v>
+        <v>2.33234855994219</v>
       </c>
       <c r="K72" t="n">
-        <v>-7.315885201709828</v>
+        <v>-11.71412580291316</v>
       </c>
     </row>
     <row r="73">
@@ -3272,25 +3272,25 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.3671748231841352</v>
+        <v>-0.2432545503699216</v>
       </c>
       <c r="F73" t="n">
-        <v>1.115975121748361</v>
+        <v>1.137372596899798</v>
       </c>
       <c r="G73" t="n">
-        <v>2.532524696543283</v>
+        <v>2.730986706985202</v>
       </c>
       <c r="H73" t="n">
-        <v>0.9262247248348507</v>
+        <v>1.250684131904929</v>
       </c>
       <c r="I73" t="n">
-        <v>2.159139659790684</v>
+        <v>2.046370494645618</v>
       </c>
       <c r="J73" t="n">
-        <v>0.8247513855179174</v>
+        <v>0.888009339024758</v>
       </c>
       <c r="K73" t="n">
-        <v>-7.19143668229857</v>
+        <v>-7.810195706049429</v>
       </c>
     </row>
     <row r="74">
@@ -3311,25 +3311,25 @@
         <v>2</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.2559533634335759</v>
+        <v>-0.3928291384905314</v>
       </c>
       <c r="F74" t="n">
-        <v>1.14183863861734</v>
+        <v>1.02422867526087</v>
       </c>
       <c r="G74" t="n">
-        <v>2.477822376868136</v>
+        <v>2.639188790680234</v>
       </c>
       <c r="H74" t="n">
-        <v>1.619460452668096</v>
+        <v>1.134114468504517</v>
       </c>
       <c r="I74" t="n">
-        <v>1.829538896794034</v>
+        <v>1.926009311524332</v>
       </c>
       <c r="J74" t="n">
-        <v>0.5253074308731762</v>
+        <v>0.7722829592541477</v>
       </c>
       <c r="K74" t="n">
-        <v>-7.338050292501725</v>
+        <v>-7.103011056100765</v>
       </c>
     </row>
     <row r="75">
@@ -3350,25 +3350,25 @@
         <v>3</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.2138099370782363</v>
+        <v>-0.3272064316027695</v>
       </c>
       <c r="F75" t="n">
-        <v>1.298877041928898</v>
+        <v>1.417896464958055</v>
       </c>
       <c r="G75" t="n">
-        <v>2.604964798142499</v>
+        <v>2.811118097599379</v>
       </c>
       <c r="H75" t="n">
-        <v>1.310165579753397</v>
+        <v>1.273085829977686</v>
       </c>
       <c r="I75" t="n">
-        <v>1.938086377452874</v>
+        <v>2.185152482637906</v>
       </c>
       <c r="J75" t="n">
-        <v>0.907133415663209</v>
+        <v>0.5630262463387098</v>
       </c>
       <c r="K75" t="n">
-        <v>-7.845441300965682</v>
+        <v>-7.923085162433514</v>
       </c>
     </row>
     <row r="76">
@@ -3389,25 +3389,25 @@
         <v>4</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.3220943872153009</v>
+        <v>-0.3883472749888886</v>
       </c>
       <c r="F76" t="n">
-        <v>0.6966201630764061</v>
+        <v>1.036339441784521</v>
       </c>
       <c r="G76" t="n">
-        <v>2.493141985756242</v>
+        <v>3.153472791996774</v>
       </c>
       <c r="H76" t="n">
-        <v>1.252950321353357</v>
+        <v>0.7930697977695041</v>
       </c>
       <c r="I76" t="n">
-        <v>1.873407606921023</v>
+        <v>1.973862513805145</v>
       </c>
       <c r="J76" t="n">
-        <v>0.9437858639870854</v>
+        <v>0.5503885791470052</v>
       </c>
       <c r="K76" t="n">
-        <v>-6.937794680377327</v>
+        <v>-7.118808738157532</v>
       </c>
     </row>
     <row r="77">
@@ -3428,25 +3428,25 @@
         <v>5</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.2626760784823608</v>
+        <v>-0.2725398888480893</v>
       </c>
       <c r="F77" t="n">
-        <v>1.392130298498882</v>
+        <v>0.9988327049513289</v>
       </c>
       <c r="G77" t="n">
-        <v>3.222467680877928</v>
+        <v>2.614957133259022</v>
       </c>
       <c r="H77" t="n">
-        <v>0.8653360905168868</v>
+        <v>1.296138743904518</v>
       </c>
       <c r="I77" t="n">
-        <v>2.088260584438419</v>
+        <v>1.926233283845407</v>
       </c>
       <c r="J77" t="n">
-        <v>0.3654257758739609</v>
+        <v>0.4840958447736167</v>
       </c>
       <c r="K77" t="n">
-        <v>-7.670980938120122</v>
+        <v>-7.047734410890611</v>
       </c>
     </row>
     <row r="78">
@@ -3467,25 +3467,25 @@
         <v>6</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.235322198338455</v>
+        <v>-0.2623240097752452</v>
       </c>
       <c r="F78" t="n">
-        <v>1.043814153262428</v>
+        <v>1.106223298593413</v>
       </c>
       <c r="G78" t="n">
-        <v>2.562259940198465</v>
+        <v>2.672401283078057</v>
       </c>
       <c r="H78" t="n">
-        <v>1.07188987671625</v>
+        <v>1.134379663928101</v>
       </c>
       <c r="I78" t="n">
-        <v>1.806478574014095</v>
+        <v>1.831363406379505</v>
       </c>
       <c r="J78" t="n">
-        <v>1.105676557909166</v>
+        <v>0.6240314834402224</v>
       </c>
       <c r="K78" t="n">
-        <v>-7.354801781834625</v>
+        <v>-7.106120675640128</v>
       </c>
     </row>
     <row r="79">
@@ -3506,25 +3506,25 @@
         <v>7</v>
       </c>
       <c r="E79" t="n">
-        <v>-4.753976386915368</v>
+        <v>-0.2231480409081837</v>
       </c>
       <c r="F79" t="n">
-        <v>2.961231443916195</v>
+        <v>1.114087892662151</v>
       </c>
       <c r="G79" t="n">
-        <v>4.090503239727891</v>
+        <v>2.928634975165851</v>
       </c>
       <c r="H79" t="n">
-        <v>3.437364286329439</v>
+        <v>1.233517136425134</v>
       </c>
       <c r="I79" t="n">
-        <v>4.172339344230124</v>
+        <v>2.287127825765463</v>
       </c>
       <c r="J79" t="n">
-        <v>2.522579492918887</v>
+        <v>0.8691368556914516</v>
       </c>
       <c r="K79" t="n">
-        <v>-12.43010044233059</v>
+        <v>-8.209441008852817</v>
       </c>
     </row>
     <row r="80">
@@ -3545,25 +3545,25 @@
         <v>8</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.2144284558686643</v>
+        <v>-0.3317361846557129</v>
       </c>
       <c r="F80" t="n">
-        <v>0.8725937288369718</v>
+        <v>0.4728292489634502</v>
       </c>
       <c r="G80" t="n">
-        <v>2.463191231293631</v>
+        <v>3.387904434789815</v>
       </c>
       <c r="H80" t="n">
-        <v>1.141235496386221</v>
+        <v>1.134188026294295</v>
       </c>
       <c r="I80" t="n">
-        <v>1.762415970681173</v>
+        <v>2.089356592203634</v>
       </c>
       <c r="J80" t="n">
-        <v>0.822733296512915</v>
+        <v>1.223604238457027</v>
       </c>
       <c r="K80" t="n">
-        <v>-6.84774997152702</v>
+        <v>-7.976182955957526</v>
       </c>
     </row>
     <row r="81">
@@ -3584,25 +3584,25 @@
         <v>9</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.433718965722663</v>
+        <v>-0.3843008366888705</v>
       </c>
       <c r="F81" t="n">
-        <v>0.5501717349681667</v>
+        <v>1.325973959265259</v>
       </c>
       <c r="G81" t="n">
-        <v>2.989680212889706</v>
+        <v>2.738907146827289</v>
       </c>
       <c r="H81" t="n">
-        <v>1.140332031054697</v>
+        <v>1.123594016748408</v>
       </c>
       <c r="I81" t="n">
-        <v>1.905215827700234</v>
+        <v>1.919621757163102</v>
       </c>
       <c r="J81" t="n">
-        <v>0.723254621974028</v>
+        <v>0.7586453998272119</v>
       </c>
       <c r="K81" t="n">
-        <v>-6.874926600187818</v>
+        <v>-7.482486554003328</v>
       </c>
     </row>
     <row r="82">
@@ -3623,25 +3623,25 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.6539274354290033</v>
+        <v>-0.9513706968481837</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.8545996508299635</v>
+        <v>-0.7900187767047341</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3250442225027594</v>
+        <v>-0.4187697738325132</v>
       </c>
       <c r="H82" t="n">
-        <v>1.997640520071602</v>
+        <v>2.089081432434435</v>
       </c>
       <c r="I82" t="n">
-        <v>0.8351711807748093</v>
+        <v>1.002270665903021</v>
       </c>
       <c r="J82" t="n">
-        <v>0.9176550772291332</v>
+        <v>1.044527410678823</v>
       </c>
       <c r="K82" t="n">
-        <v>-1.916900821884385</v>
+        <v>-1.975724862165021</v>
       </c>
     </row>
     <row r="83">
@@ -3662,25 +3662,25 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.5233017575315287</v>
+        <v>-0.5697726131820721</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.7759044974511689</v>
+        <v>-0.5150232891512125</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3436113420308577</v>
+        <v>-0.3364232458166825</v>
       </c>
       <c r="H83" t="n">
-        <v>1.754616824429147</v>
+        <v>1.445337524859057</v>
       </c>
       <c r="I83" t="n">
-        <v>0.9481577116645712</v>
+        <v>0.5903281269266032</v>
       </c>
       <c r="J83" t="n">
-        <v>0.9531123052315699</v>
+        <v>1.159040320377632</v>
       </c>
       <c r="K83" t="n">
-        <v>-2.013070682057237</v>
+        <v>-1.773490033547848</v>
       </c>
     </row>
     <row r="84">
@@ -3701,25 +3701,25 @@
         <v>2</v>
       </c>
       <c r="E84" t="n">
-        <v>-2.46345483556276</v>
+        <v>-0.6585151763705084</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.103484206495724</v>
+        <v>-0.5622887253183214</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.823426988457587</v>
+        <v>-0.3210184351871528</v>
       </c>
       <c r="H84" t="n">
-        <v>6.489848037494173</v>
+        <v>1.833760624295066</v>
       </c>
       <c r="I84" t="n">
-        <v>5.811886740576097</v>
+        <v>0.5029210762981904</v>
       </c>
       <c r="J84" t="n">
-        <v>5.133925587639706</v>
+        <v>1.005163421215132</v>
       </c>
       <c r="K84" t="n">
-        <v>-10.04530187104864</v>
+        <v>-1.800027972827723</v>
       </c>
     </row>
     <row r="85">
@@ -3740,25 +3740,25 @@
         <v>3</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.3362846864119367</v>
+        <v>-0.4111357038708844</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.8376686256340826</v>
+        <v>-0.8505373893110809</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3118726971391064</v>
+        <v>-0.3574175205944664</v>
       </c>
       <c r="H85" t="n">
-        <v>1.956288952142824</v>
+        <v>1.928755714142649</v>
       </c>
       <c r="I85" t="n">
-        <v>0.7689583570447711</v>
+        <v>0.2272024491599</v>
       </c>
       <c r="J85" t="n">
-        <v>0.7602987791863438</v>
+        <v>1.376731949107291</v>
       </c>
       <c r="K85" t="n">
-        <v>-1.99972411313271</v>
+        <v>-1.91360503679458</v>
       </c>
     </row>
     <row r="86">
@@ -3779,25 +3779,25 @@
         <v>4</v>
       </c>
       <c r="E86" t="n">
-        <v>-1.242984639636176</v>
+        <v>-0.5731376570375736</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.706267810540412</v>
+        <v>-0.4530835568695388</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.231799964855327</v>
+        <v>-0.2679181493768288</v>
       </c>
       <c r="H86" t="n">
-        <v>7.014467504340606</v>
+        <v>1.765783285398501</v>
       </c>
       <c r="I86" t="n">
-        <v>-0.2335187058453292</v>
+        <v>0.4666888796382681</v>
       </c>
       <c r="J86" t="n">
-        <v>0.2398283495404551</v>
+        <v>0.9088907769039473</v>
       </c>
       <c r="K86" t="n">
-        <v>-2.839738537711713</v>
+        <v>-1.847225974591663</v>
       </c>
     </row>
     <row r="87">
@@ -3818,25 +3818,25 @@
         <v>5</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.5086534664658235</v>
+        <v>-0.840199421980501</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.046056383330519</v>
+        <v>-0.541596746922665</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.454180207075835</v>
+        <v>0.08192601736601955</v>
       </c>
       <c r="H87" t="n">
-        <v>2.035443336250571</v>
+        <v>1.845001633339486</v>
       </c>
       <c r="I87" t="n">
-        <v>0.4900825933434333</v>
+        <v>0.7176418520430158</v>
       </c>
       <c r="J87" t="n">
-        <v>1.419042800521851</v>
+        <v>0.6756849187232096</v>
       </c>
       <c r="K87" t="n">
-        <v>-1.935680587895335</v>
+        <v>-1.938462791782739</v>
       </c>
     </row>
     <row r="88">
@@ -3857,25 +3857,25 @@
         <v>6</v>
       </c>
       <c r="E88" t="n">
-        <v>0.1249212331560553</v>
+        <v>-1.428988794947255</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.458424488873429</v>
+        <v>-1.432348802789432</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.4946387356497606</v>
+        <v>-1.102199612124395</v>
       </c>
       <c r="H88" t="n">
-        <v>1.956963992455943</v>
+        <v>7.193946607399971</v>
       </c>
       <c r="I88" t="n">
-        <v>0.8478033537562281</v>
+        <v>-0.9143230529455828</v>
       </c>
       <c r="J88" t="n">
-        <v>1.241757189740555</v>
+        <v>0.3931081745496739</v>
       </c>
       <c r="K88" t="n">
-        <v>-2.218384428082809</v>
+        <v>-2.709211410495376</v>
       </c>
     </row>
     <row r="89">
@@ -3896,25 +3896,25 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.5876964059002864</v>
+        <v>-0.5713760616056338</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.384012041740341</v>
+        <v>-0.1293850365500288</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.08001024045185953</v>
+        <v>-0.5078264732858089</v>
       </c>
       <c r="H89" t="n">
-        <v>1.941078031943276</v>
+        <v>1.770119481707574</v>
       </c>
       <c r="I89" t="n">
-        <v>0.9645407142653047</v>
+        <v>0.3178106335595157</v>
       </c>
       <c r="J89" t="n">
-        <v>1.312339887247711</v>
+        <v>0.9540856880730999</v>
       </c>
       <c r="K89" t="n">
-        <v>-2.166243221123025</v>
+        <v>-1.833431367985167</v>
       </c>
     </row>
     <row r="90">
@@ -3935,25 +3935,25 @@
         <v>8</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.5098143817000647</v>
+        <v>0.1124860937275557</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6392679784577661</v>
+        <v>0.5744472877199516</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.7337688178530029</v>
+        <v>-0.008729980101354281</v>
       </c>
       <c r="H90" t="n">
-        <v>1.990883086973207</v>
+        <v>2.859215532598468</v>
       </c>
       <c r="I90" t="n">
-        <v>0.7891767431404949</v>
+        <v>1.742262640574043</v>
       </c>
       <c r="J90" t="n">
-        <v>0.9829487516877139</v>
+        <v>1.849593346236721</v>
       </c>
       <c r="K90" t="n">
-        <v>-1.88015880127667</v>
+        <v>-7.129297358557249</v>
       </c>
     </row>
     <row r="91">
@@ -3974,25 +3974,25 @@
         <v>9</v>
       </c>
       <c r="E91" t="n">
-        <v>-1.554818417442596</v>
+        <v>-0.3417318625837957</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8783140963687919</v>
+        <v>-1.321685136668459</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01299075967135991</v>
+        <v>0.0122397647769206</v>
       </c>
       <c r="H91" t="n">
-        <v>2.175979067707122</v>
+        <v>1.833151575095491</v>
       </c>
       <c r="I91" t="n">
-        <v>1.057122962990091</v>
+        <v>0.650571353390746</v>
       </c>
       <c r="J91" t="n">
-        <v>1.191225432733525</v>
+        <v>1.319195526079346</v>
       </c>
       <c r="K91" t="n">
-        <v>-2.004186101673708</v>
+        <v>-2.151741803131681</v>
       </c>
     </row>
   </sheetData>
